--- a/Team-Data/2014-15/2-24-2014-15.xlsx
+++ b/Team-Data/2014-15/2-24-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
@@ -780,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -974,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -989,16 +1056,16 @@
         <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1168,7 +1235,7 @@
         <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>9</v>
@@ -1177,10 +1244,10 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1299,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>4</v>
@@ -1335,10 +1402,10 @@
         <v>23</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>25</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1554,7 @@
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>18</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1538,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n">
         <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.621</v>
+        <v>0.614</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,37 +1661,37 @@
         <v>37.6</v>
       </c>
       <c r="J7" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K7" t="n">
         <v>0.458</v>
       </c>
       <c r="L7" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="N7" t="n">
         <v>0.355</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P7" t="n">
         <v>24.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R7" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T7" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
         <v>21.9</v>
@@ -1642,7 +1709,7 @@
         <v>4.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA7" t="n">
         <v>20.9</v>
@@ -1651,13 +1718,13 @@
         <v>102.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1675,7 +1742,7 @@
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1684,10 +1751,10 @@
         <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
         <v>10</v>
@@ -1699,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
@@ -1711,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>25</v>
@@ -1720,10 +1787,10 @@
         <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -1761,13 +1828,13 @@
         <v>58</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.672</v>
+        <v>0.655</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1800,19 +1867,19 @@
         <v>0.759</v>
       </c>
       <c r="R8" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U8" t="n">
         <v>22.9</v>
       </c>
       <c r="V8" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
@@ -1821,10 +1888,10 @@
         <v>4.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA8" t="n">
         <v>21.8</v>
@@ -1833,7 +1900,7 @@
         <v>105.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1842,10 +1909,10 @@
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
         <v>14</v>
@@ -1866,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
@@ -1881,10 +1948,10 @@
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1899,10 +1966,10 @@
         <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
@@ -2054,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>23</v>
@@ -2066,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU9" t="n">
         <v>17</v>
@@ -2081,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>0.404</v>
+        <v>0.411</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,10 +2207,10 @@
         <v>36.6</v>
       </c>
       <c r="J10" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.428</v>
+        <v>0.429</v>
       </c>
       <c r="L10" t="n">
         <v>8.699999999999999</v>
@@ -2152,34 +2219,34 @@
         <v>25.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O10" t="n">
         <v>16.5</v>
       </c>
       <c r="P10" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.706</v>
+        <v>0.709</v>
       </c>
       <c r="R10" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T10" t="n">
         <v>45.3</v>
       </c>
       <c r="U10" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V10" t="n">
         <v>13.6</v>
       </c>
       <c r="W10" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X10" t="n">
         <v>4.4</v>
@@ -2191,25 +2258,25 @@
         <v>18.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>18</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
         <v>20</v>
@@ -2218,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2263,13 +2330,13 @@
         <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="J11" t="n">
         <v>87</v>
@@ -2331,61 +2398,61 @@
         <v>10.5</v>
       </c>
       <c r="M11" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.389</v>
+        <v>0.386</v>
       </c>
       <c r="O11" t="n">
         <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R11" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="U11" t="n">
         <v>27.1</v>
       </c>
       <c r="V11" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
         <v>9.4</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y11" t="n">
         <v>3.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA11" t="n">
         <v>19.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="AC11" t="n">
         <v>10.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -2415,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2430,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2442,13 +2509,13 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.673</v>
+        <v>0.679</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
@@ -2513,19 +2580,19 @@
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.717</v>
+        <v>0.715</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
@@ -2552,22 +2619,22 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2579,10 +2646,10 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>13</v>
@@ -2627,19 +2694,19 @@
         <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>0.404</v>
+        <v>0.411</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,13 +2753,13 @@
         <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K13" t="n">
         <v>0.437</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M13" t="n">
         <v>20.8</v>
@@ -2701,25 +2768,25 @@
         <v>0.335</v>
       </c>
       <c r="O13" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P13" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R13" t="n">
         <v>10.5</v>
       </c>
       <c r="S13" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
         <v>44.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
@@ -2728,43 +2795,43 @@
         <v>6.1</v>
       </c>
       <c r="X13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y13" t="n">
         <v>4.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2782,43 +2849,43 @@
         <v>24</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU13" t="n">
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -2931,13 +2998,13 @@
         <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
         <v>27</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" t="n">
-        <v>0.259</v>
+        <v>0.255</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N15" t="n">
         <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3092,25 +3159,25 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>4.6</v>
-      </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,13 +3192,13 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
@@ -3140,16 +3207,16 @@
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
         <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
@@ -3158,13 +3225,13 @@
         <v>17</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW15" t="n">
         <v>19</v>
@@ -3173,16 +3240,16 @@
         <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB15" t="n">
         <v>18</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>17</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
@@ -3334,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
         <v>12</v>
@@ -3355,7 +3422,7 @@
         <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3513,7 +3580,7 @@
         <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3543,7 +3610,7 @@
         <v>11</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>1.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>10</v>
@@ -3695,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.509</v>
+        <v>0.518</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,70 +4027,70 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>83.2</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O20" t="n">
         <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
         <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
         <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W20" t="n">
         <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>15</v>
@@ -4032,16 +4099,16 @@
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>23</v>
@@ -4050,25 +4117,25 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
@@ -4077,10 +4144,10 @@
         <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>27</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4223,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>18</v>
@@ -4232,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4256,10 +4323,10 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
         <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J22" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K22" t="n">
         <v>0.445</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
         <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="O22" t="n">
         <v>18</v>
       </c>
       <c r="P22" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R22" t="n">
         <v>12.3</v>
       </c>
       <c r="S22" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="T22" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V22" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4372,19 +4439,19 @@
         <v>4.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA22" t="n">
         <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4396,13 +4463,13 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
@@ -4417,7 +4484,7 @@
         <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
         <v>11</v>
@@ -4426,10 +4493,10 @@
         <v>16</v>
       </c>
       <c r="AR22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -4438,25 +4505,25 @@
         <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333</v>
+        <v>0.328</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
         <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O23" t="n">
         <v>14.2</v>
@@ -4527,31 +4594,31 @@
         <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21.2</v>
@@ -4560,13 +4627,13 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
@@ -4581,13 +4648,13 @@
         <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
@@ -4629,13 +4696,13 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>23</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>20</v>
-      </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,7 +4848,7 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>9</v>
@@ -4805,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4814,10 +4881,10 @@
         <v>22</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4966,25 +5033,25 @@
         <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR25" t="n">
         <v>15</v>
       </c>
       <c r="AS25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT25" t="n">
         <v>19</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -5121,7 +5188,7 @@
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
         <v>9</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5157,7 +5224,7 @@
         <v>16</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
         <v>3</v>
@@ -5169,13 +5236,13 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5336,7 +5403,7 @@
         <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>5</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
         <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.607</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,43 +5483,43 @@
         <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N28" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O28" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.4</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
@@ -5464,7 +5531,7 @@
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA28" t="n">
         <v>19.7</v>
@@ -5476,7 +5543,7 @@
         <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5488,13 +5555,13 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>12</v>
@@ -5506,13 +5573,13 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>12</v>
@@ -5521,16 +5588,16 @@
         <v>24</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5551,7 +5618,7 @@
         <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" t="n">
         <v>37</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="n">
-        <v>0.649</v>
+        <v>0.661</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5613,34 +5680,34 @@
         <v>0.348</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P29" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S29" t="n">
         <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U29" t="n">
         <v>20.8</v>
       </c>
       <c r="V29" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
         <v>7.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
         <v>5.2</v>
@@ -5649,37 +5716,37 @@
         <v>21.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.7</v>
+        <v>104.9</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF29" t="n">
         <v>5</v>
       </c>
-      <c r="AF29" t="n">
-        <v>7</v>
-      </c>
       <c r="AG29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>8</v>
       </c>
       <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
         <v>13</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5697,10 +5764,10 @@
         <v>5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS29" t="n">
         <v>26</v>
@@ -5712,16 +5779,16 @@
         <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX29" t="n">
         <v>18</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>23</v>
@@ -5894,16 +5961,16 @@
         <v>29</v>
       </c>
       <c r="AV30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
         <v>22</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" t="n">
         <v>33</v>
       </c>
       <c r="F31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" t="n">
-        <v>0.579</v>
+        <v>0.589</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5965,16 +6032,16 @@
         <v>82.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>16.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O31" t="n">
         <v>16</v>
@@ -5983,7 +6050,7 @@
         <v>21.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R31" t="n">
         <v>10.5</v>
@@ -5998,34 +6065,34 @@
         <v>24.4</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W31" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>12</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6058,13 +6125,13 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
@@ -6076,22 +6143,22 @@
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-24-2014-15</t>
+          <t>2015-02-24</t>
         </is>
       </c>
     </row>
